--- a/data/ditransitive constructions.xlsx
+++ b/data/ditransitive constructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29920" windowHeight="13100" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -171,7 +171,7 @@
     <t>受事受益结构</t>
   </si>
   <si>
-    <t>普通话</t>
+    <t>普通话（mandarin）</t>
   </si>
   <si>
     <r>
@@ -390,16 +390,16 @@
     </r>
   </si>
   <si>
-    <t>北京话</t>
-  </si>
-  <si>
-    <t>绵阳话</t>
-  </si>
-  <si>
-    <t>咸阳话</t>
-  </si>
-  <si>
-    <t>天台话</t>
+    <t>北京话 (Beijing)</t>
+  </si>
+  <si>
+    <t>绵阳话 (Mianyang, Sichuang)</t>
+  </si>
+  <si>
+    <t>咸阳话 (Xianyang, Shaanxi)</t>
+  </si>
+  <si>
+    <t>天台话(Tiantai, Zhejiang)</t>
   </si>
   <si>
     <r>
@@ -510,7 +510,7 @@
     </r>
   </si>
   <si>
-    <t>英语</t>
+    <t>英语 （English）</t>
   </si>
   <si>
     <r>
@@ -1338,13 +1338,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1605,10 +1598,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1726,7 +1719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="2:26">
+    <row r="2" spans="1:36">
       <c r="B2" t="s">
         <v>36</v>
       </c>
@@ -1734,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="1:36">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -1742,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="1:36">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -1759,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="1:36">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1773,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:36">
       <c r="B6" t="s">
         <v>40</v>
       </c>
@@ -1781,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="1:36">
       <c r="B7" t="s">
         <v>41</v>
       </c>
@@ -1834,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:31">
+    <row r="8" spans="1:36">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -1845,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:36">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -1853,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:33">
+    <row r="10" spans="1:36">
       <c r="B10" t="s">
         <v>44</v>
       </c>
@@ -1864,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:34">
+    <row r="11" spans="1:36">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -1872,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:36">
+    <row r="12" spans="1:36">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -1993,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="1:36">
       <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
@@ -2031,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="1:36">
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
@@ -2063,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="1:36">
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -2199,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="1:36">
       <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
@@ -2237,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:36">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2296,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="1:36">
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
@@ -2334,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="1:36">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -2366,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="1:36">
       <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
@@ -2392,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:36">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2457,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="1:36">
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
@@ -2501,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:36">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2563,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="1:36">
       <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
@@ -2586,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="1:36">
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
@@ -2674,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="1:36">
       <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
@@ -2718,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="19" spans="2:28">
+    <row r="30" ht="19" spans="1:36">
       <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
@@ -2746,13 +2739,13 @@
   <sheetPr/>
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="2:35">
+    <row r="1" spans="1:35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2864,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2875,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2883,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2894,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2902,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2932,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2940,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2951,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2983,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2997,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3011,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3025,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3036,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3052,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3068,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3076,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3093,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3104,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3126,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3137,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3148,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3156,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3167,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3175,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3197,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3216,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
